--- a/NodeSamples/测试节点/K2OSiO2.xlsx
+++ b/NodeSamples/测试节点/K2OSiO2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\测试节点\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82BD64-4BC2-4469-A310-A62A2638C305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C970253-7B64-464A-BAD3-AAFE300C978F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1140" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="21600" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表3" sheetId="4" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Author</t>
   </si>
@@ -492,11 +493,18 @@
     <t>Node</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -575,11 +583,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -596,6 +599,14 @@
       <b/>
       <sz val="16"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -668,7 +679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,17 +695,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,11 +997,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47B8B1-FF18-6F43-9034-BB1C05C25552}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5222C30D-370F-4E5C-AD1F-DE9E05D07B7C}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.25">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25">
+      <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="13">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="14">
+        <v>45</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25">
+      <c r="A3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="13">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="14">
+        <v>48</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="14">
+        <v>68</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="13">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.3449999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25">
+      <c r="A7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>48</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.25">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="14">
+        <v>68</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.25">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>85</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4.3449999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25">
+      <c r="A10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="14">
+        <v>85</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.9650000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25">
+      <c r="A11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="14">
+        <v>68</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25">
+      <c r="A12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="14">
+        <v>48</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.25">
+      <c r="A13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.16499999999999901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25">
+      <c r="A14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="13">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="14">
+        <v>45</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.16499999999999901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.25">
+      <c r="A15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="14">
+        <v>48</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="14">
+        <v>68</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.25">
+      <c r="A17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="13">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="14">
+        <v>85</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1.9650000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47B8B1-FF18-6F43-9034-BB1C05C25552}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -996,631 +1521,39 @@
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="7">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="13">
-        <v>45</v>
-      </c>
-      <c r="I2" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H3" s="13">
-        <v>45</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H4" s="13">
-        <v>48</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H5" s="13">
-        <v>68</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H6" s="13">
-        <v>85</v>
-      </c>
-      <c r="I6" s="13">
-        <v>4.3449999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="13">
-        <v>85</v>
-      </c>
-      <c r="I7" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="13">
-        <v>45</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="13">
-        <v>48</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="13">
-        <v>68</v>
-      </c>
-      <c r="I10" s="13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="13">
-        <v>85</v>
-      </c>
-      <c r="I11" s="13">
-        <v>4.3449999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="13">
-        <v>85</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1.9650000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H13" s="13">
-        <v>68</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H14" s="13">
-        <v>48</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H15" s="13">
-        <v>45</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.16499999999999901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="13">
-        <v>45</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0.16499999999999901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="13">
-        <v>48</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="13">
-        <v>68</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H19" s="13">
-        <v>85</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1.9650000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="7">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H20" s="13">
-        <v>85</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="20.25">
-      <c r="A21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="7">
-        <v>10</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H21" s="13">
-        <v>45</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="1" s="8" customFormat="1" ht="20.25"/>
+    <row r="2" s="8" customFormat="1" ht="20.25"/>
+    <row r="3" s="8" customFormat="1" ht="20.25"/>
+    <row r="4" s="8" customFormat="1" ht="20.25"/>
+    <row r="5" s="8" customFormat="1" ht="20.25"/>
+    <row r="6" s="8" customFormat="1" ht="20.25"/>
+    <row r="7" s="8" customFormat="1" ht="20.25"/>
+    <row r="8" s="8" customFormat="1" ht="20.25"/>
+    <row r="9" s="8" customFormat="1" ht="20.25"/>
+    <row r="10" s="8" customFormat="1" ht="20.25"/>
+    <row r="11" s="8" customFormat="1" ht="20.25"/>
+    <row r="12" s="8" customFormat="1" ht="20.25"/>
+    <row r="13" s="8" customFormat="1" ht="20.25"/>
+    <row r="14" s="8" customFormat="1" ht="20.25"/>
+    <row r="15" s="8" customFormat="1" ht="20.25"/>
+    <row r="16" s="8" customFormat="1" ht="20.25"/>
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="20.25"/>
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="20.25"/>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="20.25"/>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="20.25"/>
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="20.25"/>
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1628,10 +1561,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1639,10 +1570,8 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1650,10 +1579,8 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1661,10 +1588,8 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="20.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="20.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1672,8 +1597,6 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1681,7 +1604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF9"/>
   <sheetViews>
